--- a/Source/Data/Raw/Seasonal_Ridership_by_Station.xlsx
+++ b/Source/Data/Raw/Seasonal_Ridership_by_Station.xlsx
@@ -9,13 +9,16 @@
   <sheets>
     <sheet name="Ridership_2023" sheetId="1" r:id="rId1"/>
     <sheet name="Ridership_2024" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparison" sheetId="3" r:id="rId3"/>
+    <sheet name="Overall_Chart" sheetId="4" r:id="rId4"/>
+    <sheet name="Top_Stations_Chart" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="435">
   <si>
     <t>Station</t>
   </si>
@@ -1314,6 +1317,12 @@
   </si>
   <si>
     <t>Zerega Av (6)</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1384,6 +1393,92 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>394357</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="247650"/>
+          <a:ext cx="10881382" cy="5379731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>598578</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>83838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="247650"/>
+          <a:ext cx="13524003" cy="9037338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16279,4 +16374,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>273477612</v>
+      </c>
+      <c r="C2">
+        <v>290052145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>302476175</v>
+      </c>
+      <c r="C3">
+        <v>309827420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>285632448</v>
+      </c>
+      <c r="C4">
+        <v>287299135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>302158187</v>
+      </c>
+      <c r="C5">
+        <v>324229714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="120.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="120.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Source/Data/Raw/Seasonal_Ridership_by_Station.xlsx
+++ b/Source/Data/Raw/Seasonal_Ridership_by_Station.xlsx
@@ -1449,9 +1449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>598578</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>83838</xdr:rowOff>
+      <xdr:colOff>568098</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>80808</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1469,7 +1469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="180975" y="247650"/>
-          <a:ext cx="13524003" cy="9037338"/>
+          <a:ext cx="13493523" cy="18178308"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Source/Data/Raw/Seasonal_Ridership_by_Station.xlsx
+++ b/Source/Data/Raw/Seasonal_Ridership_by_Station.xlsx
@@ -1448,10 +1448,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>568098</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>290736</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>80808</xdr:rowOff>
+      <xdr:rowOff>99096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1469,7 +1469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="180975" y="247650"/>
-          <a:ext cx="13493523" cy="18178308"/>
+          <a:ext cx="16264161" cy="18196596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Source/Data/Raw/Seasonal_Ridership_by_Station.xlsx
+++ b/Source/Data/Raw/Seasonal_Ridership_by_Station.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="436">
   <si>
     <t>Station</t>
   </si>
@@ -1323,6 +1323,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>Season</t>
   </si>
 </sst>
 </file>
@@ -1479,6 +1482,46 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E429" totalsRowShown="0">
+  <autoFilter ref="A1:E429"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Station"/>
+    <tableColumn id="2" name="Winter"/>
+    <tableColumn id="3" name="Spring"/>
+    <tableColumn id="4" name="Summer"/>
+    <tableColumn id="5" name="Fall"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E429" totalsRowShown="0">
+  <autoFilter ref="A1:E429"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Station"/>
+    <tableColumn id="2" name="Winter"/>
+    <tableColumn id="3" name="Spring"/>
+    <tableColumn id="4" name="Summer"/>
+    <tableColumn id="5" name="Fall"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Season"/>
+    <tableColumn id="2" name="2023"/>
+    <tableColumn id="3" name="2024"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1773,19 +1816,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9067,6 +9110,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -9079,19 +9125,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -16373,6 +16419,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -16385,10 +16434,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" t="s">
         <v>433</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>434</v>
       </c>
     </row>
@@ -16438,6 +16490,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
